--- a/biology/Botanique/Ulva_(algue)/Ulva_(algue).xlsx
+++ b/biology/Botanique/Ulva_(algue)/Ulva_(algue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ulva
-Les Ulves sont des algues vertes comestibles regroupées dans le genre Ulva. Depuis 2003, le World Register of Marine Species rattache le genre Enteromorpha à ce taxon[1].
+Les Ulves sont des algues vertes comestibles regroupées dans le genre Ulva. Depuis 2003, le World Register of Marine Species rattache le genre Enteromorpha à ce taxon.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le latin ulva est issu de l'indo-européen hel- signifiant « croître ». Cette étymologie fait référence à la croissance rapide des algues de ce genre, permise par leur thalle très fin dont toutes les cellules sont assimilatrices et dont la surface spécifique élevée optimise la collecte de lumière et la nutrition. La vitesse de croissance permet ainsi d'assurer la multiplication de ces algues par 10 de leur biomasse en moins d'un mois[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latin ulva est issu de l'indo-européen hel- signifiant « croître ». Cette étymologie fait référence à la croissance rapide des algues de ce genre, permise par leur thalle très fin dont toutes les cellules sont assimilatrices et dont la surface spécifique élevée optimise la collecte de lumière et la nutrition. La vitesse de croissance permet ainsi d'assurer la multiplication de ces algues par 10 de leur biomasse en moins d'un mois.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Macroalgues benthiques pour la plupart annuelles et fixées sur un substrat (rocher, coquille morte…), les ulves sont caractérisées par un développement végétatif printanier[3] qui peut se produire lorsqu'elles sont attachées à ce substrat par croissance, mais il peut également se prolonger après décrochage ou fragmentation du thalle qui a atteint une grande taille, lors des tempêtes. Cette reproduction asexuée raccourcissant le temps de transition entre le stade végétatif et le stade reproducteur, induit ainsi le bouturage des thalles en éléments de petite taille, facilement maintenus en suspension dans la masse d'eau (la densité des ulves de 1,05 kg/dm3 est très faiblement supérieure à celle de l'eau de mer qui est de 1,025 kg/dm3). Ce maintien en suspension permet de limiter la prédation par les mollusques brouteurs (petits escargots de mer tels que les Littorines, les gibbules, les hydrobies ou les Rissoa) ou les oiseaux (Bernache cravant) qui laissent des trous dans le thalle, de réduire l'auto-ombrage, d'homogénéiser la distribution de la biomasse dans la colonne d'eau (d'où une distribution optimale pour l'absorption des nutriments), et de les amener près de la surface où l'intensité lumineuse est plus élevée, autant de facteurs qui peuvent conduire au doublement de leur activité photosynthétique[4]. La flottaison des algues ulvacées est ainsi un facteur favorisant leur croissance et qui explique, avec celui d'un flux élevé d'azote et de phosphore, l'apparition des blooms algaux en été : les proliférations liées à une eutrophisation du milieu sont à l'origine de marées vertes, la biomasse flottante empêchant l'échange gazeux entre l'eau et l'atmosphère (hypoxie et anoxie du système) ainsi que l'accès à la lumière pour les producteurs primaires en croissance inférieure (phytoplancton et macroalgues submergées)[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Macroalgues benthiques pour la plupart annuelles et fixées sur un substrat (rocher, coquille morte…), les ulves sont caractérisées par un développement végétatif printanier qui peut se produire lorsqu'elles sont attachées à ce substrat par croissance, mais il peut également se prolonger après décrochage ou fragmentation du thalle qui a atteint une grande taille, lors des tempêtes. Cette reproduction asexuée raccourcissant le temps de transition entre le stade végétatif et le stade reproducteur, induit ainsi le bouturage des thalles en éléments de petite taille, facilement maintenus en suspension dans la masse d'eau (la densité des ulves de 1,05 kg/dm3 est très faiblement supérieure à celle de l'eau de mer qui est de 1,025 kg/dm3). Ce maintien en suspension permet de limiter la prédation par les mollusques brouteurs (petits escargots de mer tels que les Littorines, les gibbules, les hydrobies ou les Rissoa) ou les oiseaux (Bernache cravant) qui laissent des trous dans le thalle, de réduire l'auto-ombrage, d'homogénéiser la distribution de la biomasse dans la colonne d'eau (d'où une distribution optimale pour l'absorption des nutriments), et de les amener près de la surface où l'intensité lumineuse est plus élevée, autant de facteurs qui peuvent conduire au doublement de leur activité photosynthétique. La flottaison des algues ulvacées est ainsi un facteur favorisant leur croissance et qui explique, avec celui d'un flux élevé d'azote et de phosphore, l'apparition des blooms algaux en été : les proliférations liées à une eutrophisation du milieu sont à l'origine de marées vertes, la biomasse flottante empêchant l'échange gazeux entre l'eau et l'atmosphère (hypoxie et anoxie du système) ainsi que l'accès à la lumière pour les producteurs primaires en croissance inférieure (phytoplancton et macroalgues submergées).
 L'organisation de l'appareil végétatif est classiquement celle d'un thalle foliacé qui présente une différenciation en trois parties assimilées à tort aux racines, à la tige et aux
-feuilles des plantes supérieures[6] : crampon fixateur constitué d'un petit disque ; stipe (pseudo-tige évoquant celle des plantes vasculaires) très peu développé ; fronde formant une lame bistromatique (deux couches de cellules donnant une épaisseur de 100 μm) plane ou crispée, ou un thalle filamenteux monostromatique (une couches de cellules) pour les formes Enteromorpha.
-En biologie de la reproduction dans le règne végétal, l'espèce Ulva lactuca est classiquement choisie pour illustrer le cycle de vie digénétique (2 stades différents), haplodiplophasique (1 stade diploïde et 1 stade haploïde) et isomorphe (les générations sont morphologiquement identiques, c'est-à-dire qu'on ne peut différencier les générations sexuées et asexuées) mais de nombreuses espèces d'ulves présentent généralement un cycle reproducteur plus complexe[7].
+feuilles des plantes supérieures : crampon fixateur constitué d'un petit disque ; stipe (pseudo-tige évoquant celle des plantes vasculaires) très peu développé ; fronde formant une lame bistromatique (deux couches de cellules donnant une épaisseur de 100 μm) plane ou crispée, ou un thalle filamenteux monostromatique (une couches de cellules) pour les formes Enteromorpha.
+En biologie de la reproduction dans le règne végétal, l'espèce Ulva lactuca est classiquement choisie pour illustrer le cycle de vie digénétique (2 stades différents), haplodiplophasique (1 stade diploïde et 1 stade haploïde) et isomorphe (les générations sont morphologiquement identiques, c'est-à-dire qu'on ne peut différencier les générations sexuées et asexuées) mais de nombreuses espèces d'ulves présentent généralement un cycle reproducteur plus complexe.
 </t>
         </is>
       </c>
@@ -577,10 +593,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le début du XXIe siècle, les ulva spp. suscitent un intérêt croissant auprès d'un bon nombre d'opérateurs du secteur de l'algoculture. La production de ces algues par le biais des systèmes intégrés multi-trophiques pour une aquaculture durable occupe moins d'espace que les cultures terrestres pour la même productivité[8].
-La culture de ces algues, à un niveau commercial et industriel, a de nombreuses utilisations : production d'ingrédients alimentaires, moyen de lutte contre la pollution en phytoremédiation (grâce à la capacité des extraits d'ulve, les ulvanes, à former des hydrogels accumulant de grandes quantités de métaux lourds[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le début du XXIe siècle, les ulva spp. suscitent un intérêt croissant auprès d'un bon nombre d'opérateurs du secteur de l'algoculture. La production de ces algues par le biais des systèmes intégrés multi-trophiques pour une aquaculture durable occupe moins d'espace que les cultures terrestres pour la même productivité.
+La culture de ces algues, à un niveau commercial et industriel, a de nombreuses utilisations : production d'ingrédients alimentaires, moyen de lutte contre la pollution en phytoremédiation (grâce à la capacité des extraits d'ulve, les ulvanes, à former des hydrogels accumulant de grandes quantités de métaux lourds.
 </t>
         </is>
       </c>
@@ -609,10 +627,12 @@
           <t>Liste des espèces et sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Malgré la simplicité anatomique du thalle, l'identification des espèces nécessite une étude au microscope et quelquefois une étude de biologie moléculaire[10] ». 
-Selon AlgaeBase                                           (16 août 2012)[11] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Malgré la simplicité anatomique du thalle, l'identification des espèces nécessite une étude au microscope et quelquefois une étude de biologie moléculaire ». 
+Selon AlgaeBase                                           (16 août 2012) :
 Ulva acanthophora (Kützing) Hayden, Blomster, Maggs, P.C.Silva, Stanhope &amp; J.R.Waaland
 Ulva aetherea Poiret (Sans vérification)
 Ulva agarum (Gmelin) Poiret (Sans vérification)
@@ -842,7 +862,7 @@
 Ulva vinosa Gouan (Sans vérification)
 Ulva viridis Forssk. (Sans vérification)
 Ulva woodwartii Poiret (Sans vérification)
-Selon Catalogue of Life                                   (16 août 2012)[12] :
+Selon Catalogue of Life                                   (16 août 2012) :
 Ulva acanthophora
 Ulva anandii
 Ulva angusta
@@ -965,7 +985,7 @@
 Ulva utriculosa
 Ulva uvoides
 Ulva ventricosa
-Selon ITIS      (16 août 2012)[13] :
+Selon ITIS      (16 août 2012) :
 Ulva angusta
 Ulva californica Wille
 Ulva costata
@@ -985,7 +1005,7 @@
 Ulva stenophylla
 Ulva taeniata
 Ulva vexata
-Selon NCBI  (16 août 2012)[14] :
+Selon NCBI  (16 août 2012) :
 Ulva ohnoi
 Ulva pertusa
 Ulva procera
@@ -1027,7 +1047,7 @@
 Ulva lobata
 Ulva muscoides
 Ulva mutabilis
-Selon World Register of Marine Species                               (16 août 2012)[15] :
+Selon World Register of Marine Species                               (16 août 2012) :
 Ulva acanthophora (Kützing) Hayden, Blomster, Maggs, P.C.Silva, Stanhope &amp; J.R.Waaland, 2003
 Ulva anandii Amjad &amp; Shameel, 1993
 Ulva arasakii Chihara, 1969
